--- a/biology/Botanique/Poivrier_noir/Poivrier_noir.xlsx
+++ b/biology/Botanique/Poivrier_noir/Poivrier_noir.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Piper nigrum
 Le Poivrier noir ou Poivre noir (Piper nigrum) est une espèce de plantes à fleurs de la famille des Pipéracées. C'est une liane originaire de la côte de Malabar. Cette plante est cultivée dans la zone tropicale pour ses baies qui donnent une épice recherchée : le poivre.
@@ -512,12 +524,14 @@
           <t>Dénominations</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Nom scientifique : Piper nigrum L., 1753
-Nom accepté, recommandé ou typique en français : Poivre noir[2],[3],[4],[5] ou Poivrier noir[4],[6]
-Autres noms vulgaires (vulgarisation scientifique) : Poivre blanc[2],[4], Poivre vert[2]
-Noms vernaculaires (langage courant), pouvant désigner éventuellement d'autres espèces : Poivrier[2] ou Poivre[3]</t>
+Nom accepté, recommandé ou typique en français : Poivre noir ou Poivrier noir,
+Autres noms vulgaires (vulgarisation scientifique) : Poivre blanc Poivre vert
+Noms vernaculaires (langage courant), pouvant désigner éventuellement d'autres espèces : Poivrier ou Poivre</t>
         </is>
       </c>
     </row>
@@ -545,7 +559,9 @@
           <t>Le poivre</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Selon le traitement et le stade de récolte, les grains pourront donner :
 du poivre noir (baies entières séchées récoltées à maturité), le monde entier consomme du poivre noir, mais personne ne sait d'où il vient. Contrairement aux vins et aux fromages, rien n'oblige à mentionner son origine. « Les premiers plants cultivés au Brésil, à Madagascar ou ailleurs venaient tous du Kerala », précise le Dr Sanna, ancien directeur de l'institut indien de recherche sur les épices, qui étudie Piper nigrum depuis quarante ans[réf. nécessaire]. Dans l'Antiquité, les grains noirs servaient de monnaie d'échange au même titre que l'or ou le sel ;
@@ -580,9 +596,11 @@
           <t>Liste des variétés</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon Tropicos                                           (19 décembre 2013)[7] (Attention liste brute contenant possiblement des synonymes) :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon Tropicos                                           (19 décembre 2013) (Attention liste brute contenant possiblement des synonymes) :
 variété Piper nigrum var. macrostachyum C. DC.
 variété Piper nigrum var. nigrum</t>
         </is>
@@ -612,7 +630,9 @@
           <t>Culture</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Une maladie ravage les plants de poivrier depuis 1992. Elle contamine le sol et provoque le pourrissement brutal des racines. Le champignon Phytophthora capsici, qui s'apparente à une algue, en est à l'origine. Il peut rester plusieurs années dans le sol. Ses cellules se reproduisent avec la chaleur et les pluies. L'ONU a financé un programme de recherche pour combattre la maladie.
 </t>
